--- a/expenses.xlsx
+++ b/expenses.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="11925"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="4" r:id="rId1"/>
@@ -489,6 +489,43 @@
   <dxfs count="52">
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Franklin Gothic Book"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1314,43 +1351,6 @@
         <name val="Franklin Gothic Book"/>
       </font>
       <alignment vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Franklin Gothic Book"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1526,7 +1526,7 @@
         <xdr:cNvPr id="6" name="Picture 5" descr="Abstract Image">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2187BC33-9002-4060-A77F-5837210AB8F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2187BC33-9002-4060-A77F-5837210AB8F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1538,7 +1538,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1576,7 +1576,7 @@
         <xdr:cNvPr id="8" name="TextBox 1" descr="Balance Sheet">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{529D1A66-1E7D-4896-9776-F87F93757AFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{529D1A66-1E7D-4896-9776-F87F93757AFE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1718,7 +1718,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="Abstract Image">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB30E036-49BD-4193-A5FF-4E0320561009}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DB30E036-49BD-4193-A5FF-4E0320561009}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1730,7 +1730,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1767,7 +1767,7 @@
         <xdr:cNvPr id="3" name="TextBox 1" descr="Balance Sheet">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FEBD333-2AD9-4CE2-A0B1-5100FBD546B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5FEBD333-2AD9-4CE2-A0B1-5100FBD546B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1851,7 +1851,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="Abstract Image">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B17AEE54-0A1B-41E0-B53A-9F155DF2E2F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B17AEE54-0A1B-41E0-B53A-9F155DF2E2F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1863,7 +1863,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1900,7 +1900,7 @@
         <xdr:cNvPr id="3" name="TextBox 1" descr="Balance Sheet">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E39FB8D0-54E5-404A-A67E-ECCE7C758A3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E39FB8D0-54E5-404A-A67E-ECCE7C758A3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1978,63 +1978,63 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="B6:C25" totalsRowCount="1" dataDxfId="46">
   <autoFilter ref="B6:C24"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Date " totalsRowLabel="Total" dataDxfId="45" totalsRowDxfId="44"/>
-    <tableColumn id="2" name="Expenses" totalsRowFunction="sum" totalsRowDxfId="43"/>
+    <tableColumn id="1" name="Date " totalsRowLabel="Total" dataDxfId="45" totalsRowDxfId="1"/>
+    <tableColumn id="2" name="Expenses" totalsRowFunction="sum" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_CurrentAssets" displayName="Table_CurrentAssets" ref="B3:D10" totalsRowCount="1" headerRowDxfId="42" dataDxfId="41" totalsRowDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table_CurrentAssets" displayName="Table_CurrentAssets" ref="B3:D10" totalsRowCount="1" headerRowDxfId="44" dataDxfId="43" totalsRowDxfId="42">
   <tableColumns count="3">
-    <tableColumn id="1" name="Current Assets" totalsRowLabel="Total Current Assets" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="2" name="Year 1" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="3" name="Year 2" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="1" name="Current Assets" totalsRowLabel="Total Current Assets" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="2" name="Year 1" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="3" name="Year 2" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="Business Table" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_FixedAssets" displayName="Table_FixedAssets" ref="B12:D17" totalsRowCount="1" totalsRowDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table_FixedAssets" displayName="Table_FixedAssets" ref="B12:D17" totalsRowCount="1" totalsRowDxfId="35">
   <tableColumns count="3">
-    <tableColumn id="1" name="Fixed Assets" totalsRowLabel="Total Fixed Assets" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="2" name="Year 1" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="29"/>
-    <tableColumn id="3" name="Year 2" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="1" name="Fixed Assets" totalsRowLabel="Total Fixed Assets" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="2" name="Year 1" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="3" name="Year 2" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="Business Table" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_OtherAssets" displayName="Table_OtherAssets" ref="B19:D21" totalsRowCount="1" totalsRowDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table_OtherAssets" displayName="Table_OtherAssets" ref="B19:D21" totalsRowCount="1" totalsRowDxfId="28">
   <tableColumns count="3">
-    <tableColumn id="1" name="Other Assets" totalsRowLabel="Total Other Assets" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="2" name="Year 1" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="3" name="Year 2" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="1" name="Other Assets" totalsRowLabel="Total Other Assets" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="2" name="Year 1" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="3" name="Year 2" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="Business Table" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table_CurrentLiabilities" displayName="Table_CurrentLiabilities" ref="B3:D10" totalsRowCount="1" totalsRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table_CurrentLiabilities" displayName="Table_CurrentLiabilities" ref="B3:D10" totalsRowCount="1" totalsRowDxfId="21">
   <tableColumns count="3">
-    <tableColumn id="1" name="Current Liabilities" totalsRowLabel="Total Current Liabilities" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="2" name="Year 1" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="15"/>
-    <tableColumn id="3" name="Year 2" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="1" name="Current Liabilities" totalsRowLabel="Total Current Liabilities" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="2" name="Year 1" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="3" name="Year 2" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="Business Table" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table_LongTermLiabilities" displayName="Table_LongTermLiabilities" ref="B12:D14" totalsRowCount="1" totalsRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table_LongTermLiabilities" displayName="Table_LongTermLiabilities" ref="B12:D14" totalsRowCount="1" totalsRowDxfId="14">
   <tableColumns count="3">
-    <tableColumn id="1" name="Long-Term Liabilities" totalsRowLabel="Total Long-Term Liabilities" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="2" name="Year 1" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="3" name="Year 2" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="1" name="Long-Term Liabilities" totalsRowLabel="Total Long-Term Liabilities" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="2" name="Year 1" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="3" name="Year 2" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="Business Table" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2043,9 +2043,9 @@
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table_OwnersEquity" displayName="Table_OwnersEquity" ref="B16:D19" totalsRowCount="1">
   <tableColumns count="3">
-    <tableColumn id="1" name="Owner's Equity" totalsRowLabel="Total Owner's Equity" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="2" name="Year 1" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="3" name="Year 2" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="Owner's Equity" totalsRowLabel="Total Owner's Equity" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="2" name="Year 1" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="3" name="Year 2" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="Business Table" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2243,7 +2243,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme Dark" id="{D39323B7-B2D6-4C10-818B-A5CD4ACE85BD}" vid="{15FD9199-0511-4D87-8BFB-2FF3F0C5B55D}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme Dark" id="{D39323B7-B2D6-4C10-818B-A5CD4ACE85BD}" vid="{15FD9199-0511-4D87-8BFB-2FF3F0C5B55D}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2254,7 +2254,7 @@
   <dimension ref="B1:E25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageLayout" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21" customHeight="1"/>
@@ -2308,7 +2308,7 @@
         <v>56</v>
       </c>
       <c r="C7" s="19">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="28.7" customHeight="1">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="C25" s="25">
         <f>SUBTOTAL(109,[Expenses])</f>
-        <v>50369</v>
+        <v>50469</v>
       </c>
     </row>
   </sheetData>
@@ -3162,21 +3162,21 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3200,14 +3200,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37A54519-C6C5-46DC-9915-93CBE519EC6A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A448C893-941E-4E59-871D-C8899FD1A6B4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -3215,4 +3207,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37A54519-C6C5-46DC-9915-93CBE519EC6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>